--- a/source2.xlsx
+++ b/source2.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9535" uniqueCount="2037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9535" uniqueCount="2038">
   <si>
     <t>ИНСТИТУТ</t>
   </si>
@@ -4794,8 +4794,7 @@
   <si>
     <t>s.  Физическая культура и спорт
 s.
-ty.  ПЗ
-ty.
+ty.  ty.
 te.  te.
 r.  Спортивный комплекс
 r.
@@ -4968,8 +4967,7 @@
   <si>
     <t>s.  Криминалистика
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Черевко Владимир Владимирович
 te.
@@ -5194,8 +5192,7 @@
   <si>
     <t>s.  Криминалистика
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Черевко Владимир Владимирович
 te.
@@ -5464,8 +5461,7 @@
   <si>
     <t>s.  Криминалистика
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Черевко Владимир Владимирович
 te.
@@ -5523,8 +5519,7 @@
   <si>
     <t>s.  Криминалистика
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Черевко Владимир Владимирович
 te.
@@ -6855,8 +6850,7 @@
   <si>
     <t>s.  Физическая культура и спорт
 s.
-ty.  ПЗ
-ty.
+ty.  ty.
 te.  te.
 r.  Спортивный комплекс
 r.
@@ -7125,8 +7119,7 @@
   <si>
     <t>s.  Физическая культура и спорт
 s.
-ty.  ПЗ
-ty.
+ty.  ty.
 te.  te.
 r.  Спортивный комплекс
 r.
@@ -8897,8 +8890,7 @@
   <si>
     <t>s.  Физическая культура и спорт
 s.
-ty.  ПЗ
-ty.
+ty.  ty.
 te.  te.
 r.  Спортивный комплекс
 r.
@@ -10423,268 +10415,638 @@
   <si>
     <t>s.  Методы разведочного анализа данных
 s.
+ty.  ЛЗ
+ty.
+te.  Константинова Любовь Андреевна
+te.
+r.  ЛК-407
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Методы и модели эконометрики
+s.
+ty.  ПЗ
+ty.
+te.  Писарева Ольга Михайловна
+te.
+r.  ЛК-226
+r.
+time. 17.05-18.35 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Методы и модели эконометрики
+s.
+ty.  ЛЗ
+ty.
+te.  Писарева Ольга Михайловна
+te.
+r.  ЛК-226
+r.
+time. 17.05-18.35 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Инфраструктура и технологии оперативного анализа данных OLAP
+s.
+ty.  Лекция
+ty.
+te.  Крамаренко Инна Владимировна
+te.
+r.  ЛК-226
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Инфраструктура и технологии оперативного анализа данных OLAP
+s.
+ty.  ПЗ
+ty.
+te.  Крамаренко Инна Владимировна
+te.
+r.  ЛК-407
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Инфраструктура и технологии оперативного анализа данных OLAP
+s.
+ty.  ЛЗ
+ty.
+te.  Крамаренко Инна Владимировна
+te.
+r.  ЛК-407
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Методы и технологии машинного обучения
+s.
+ty.  ЛЗ
+ty.
+te.  Денисова Анна Игоревна
+te.
+r.  ЛК-407
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Методы и технологии машинного обучения
+s.
+ty.  Лекция
+ty.
+te.  Денисова Анна Игоревна
+te.
+r.  ЛК-407
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Уравнения математической физики
+s.
+ty.  Лекция
+ty.
+te.  Шананин Николай Алексеевич
+te.
+r.  ЛК-226
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Уравнения математической физики
+s.
+ty.  ПЗ
+ty.
+te.  Шананин Николай Алексеевич
+te.
+r.  ЛК-226
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Рынки ИКТ и организация продаж
+s.
+ty.  ПЗ
+ty.
+te.  Данилина Ольга Михайловна
+te.
+r.  ЛК-519
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Программная инженерия
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ЛК-418
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Рынки ИКТ и организация продаж
+s.
+ty.  Лекция
+ty.
+te.  Данилина Ольга Михайловна
+te.
+r.  ПА-18
+r.
+time. 17.05-18.35 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Программная инженерия
+s.
+ty.  Лекция
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ПА-14
+r.
+time. 17.05-18.35 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Программная инженерия
+s.
+ty.  Лекция
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ЛК-226
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Программная инженерия
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ЛК-116
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ЛК-107
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
+s.
+ty.  Лекция
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ПА-17
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
+s.
+ty.  Лекция
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ПА-18
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Проектирование информационных систем
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусов Виталий Андреевич
+te.
+r.  ЛК-528
+r.
+time. 17.05-18.35 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Проектирование информационных систем
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусов Виталий Андреевич
+te.
+r.  ЛК-501
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Анализ и моделирование бизнес-процессов
+s.
+ty.  Лекция
+ty.
+te.  Терехова Анна Евгеньевна
+te.
+r.  r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Анализ и моделирование бизнес-процессов
+s.
+ty.  ЛЗ
+ty.
+te.  Терехова Анна Евгеньевна
+te.
+r.  r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ЛК-101
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Проектирование информационных систем
+s.
+ty.  Лекция
+ty.
+te.  Болдырева Людмила Борисовна
+te.
+r.  ПА-18
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Иностранный язык профессионального делового общения
+Проектирование информационных систем
+s.
+ty.  Лекция
+ПЗ
+ty.
+te.  Белоусов Виталий Андреевич
+te.
+r.  ЛК 6 этаж
+ПА-18
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Цифровой маркетинг
+s.
+ty.  ЛЗ
+ty.
+te.  Блинникова Алла Викторовна
+te.
+r.  ПА-21
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Цифровой маркетинг
+s.
+ty.  Лекция
+ty.
+te.  Блинникова Алла Викторовна
+te.
+r.  ПА-17
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Цифровой маркетинг
+s.
+ty.  ЛЗ
+ty.
+te.  Блинникова Алла Викторовна
+te.
+r.  ПА-17
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Рынки ИКТ и организация продаж
+s.
+ty.  ПЗ
+ty.
+te.  Данилина Ольга Михайловна
+te.
+r.  ЛК-519
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Проектирование информационных систем
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусов Виталий Андреевич
+te.
+r.  ЛК-110
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусов Виталий Андреевич
+te.
+r.  ЛК-110
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Программная инженерия
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ЛК-101
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусов Виталий Андреевич
+te.
+r.  ЛК-102
+r.
+time. 17.05-18.35 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Анализ и моделирование бизнес-процессов
+s.
+ty.  ЛЗ
+ty.
+te.  Терехова Анна Евгеньевна
+te.
+r.  r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Цифровой маркетинг
+s.
+ty.  ЛЗ
+ty.
+te.  Блинникова Алла Викторовна
+te.
+r.  У-441
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Программная инженерия
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ЛК-416
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Проектирование информационных систем
+Цифровой маркетинг
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусов Виталий Андреевич
+Блинникова Алла Викторовна
+te.
+r.  ЛК-509
+ПА-21
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Технологии аналитических информационных систем
+s.
+ty.  ЛЗ
+ty.
+te.  Коржнев Станислав Владимирович
+te.
+r.  ЛК-416
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Технологии аналитических информационных систем
+Анализ и моделирование бизнес-процессов
+s.
 ty.  Лекция
 ЛЗ
 ty.
-te.  Константинова Любовь Андреевна
+te.  Коржнев Станислав Владимирович
+Терехова Анна Евгеньевна
+te.
+r.  ЛК-519
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ЛК-418
+r.
+time. 17.05-18.35 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Операционные системы
+s.
+ty.  Лекция
+ty.
+te.  Белоусов Виталий Андреевич
+te.
+r.  ПА-12
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Программная инженерия
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ЛК-509
+r.
+time. 17.05-18.35 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусов Виталий Андреевич
+te.
+r.  ЛК-501
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Операционные системы
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусов Виталий Андреевич
 te.
 r.  ЛК-407
 r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Проектирование информационных систем
+s.
+ty.  ЛЗ
+ty.
+te.  Болдырева Людмила Борисовна
+te.
+r.  ЛК-407
+r.
 time. 15.25-16.55 time.
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Методы и модели эконометрики
-s.
-ty.  ПЗ
-ty.
-te.  Писарева Ольга Михайловна
-te.
-r.  ЛК-226
-r.
-time. 17.05-18.35 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Методы и модели эконометрики
+    <t>s.  Программная инженерия
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ЛК-110
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Технологии аналитических информационных систем
+s.
+ty.  Лекция
+ty.
+te.  Крамаренко Инна Владимировна
+te.
+r.  ПА-14
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Проектирование информационных систем
+s.
+ty.  Лекция
+ty.
+te.  Болдырева Людмила Борисовна
+te.
+r.  ПА-14
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
 s.
 ty.  Лекция
 ЛЗ
 ty.
-te.  Писарева Ольга Михайловна
-te.
-r.  ЛК-226
-r.
-time. 17.05-18.35 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Инфраструктура и технологии оперативного анализа данных OLAP
+te.  Белоусова Мария Николаевна
+te.
+r.  ПА-14
+r.
+time. 15.25-16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
 s.
 ty.  Лекция
 ty.
-te.  Крамаренко Инна Владимировна
-te.
-r.  ЛК-226
+te.  Белоусова Мария Николаевна
+te.
+r.  ПА-14
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Программная инженерия
+s.
+ty.  Лекция
+ty.
+te.  Белоусова Мария Николаевна
+te.
+r.  ПА-14
 r.
 time. 15.25-16.55 time.
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Инфраструктура и технологии оперативного анализа данных OLAP
-s.
-ty.  ПЗ
-ty.
-te.  Крамаренко Инна Владимировна
-te.
-r.  ЛК-407
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Инфраструктура и технологии оперативного анализа данных OLAP
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Крамаренко Инна Владимировна
-te.
-r.  ЛК-407
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Методы и технологии машинного обучения
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Денисова Анна Игоревна
-te.
-r.  ЛК-407
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Методы и технологии машинного обучения
-s.
-ty.  Лекция
-ty.
-te.  Денисова Анна Игоревна
-te.
-r.  ЛК-407
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Уравнения математической физики
-s.
-ty.  Лекция
-ty.
-te.  Шананин Николай Алексеевич
-te.
-r.  ЛК-226
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Уравнения математической физики
-s.
-ty.  ПЗ
-ty.
-te.  Шананин Николай Алексеевич
-te.
-r.  ЛК-226
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Рынки ИКТ и организация продаж
-s.
-ty.  ПЗ
-ty.
-te.  Данилина Ольга Михайловна
-te.
-r.  ЛК-519
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Программная инженерия
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ЛК-418
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Рынки ИКТ и организация продаж
-s.
-ty.  Лекция
-ty.
-te.  Данилина Ольга Михайловна
-te.
-r.  ПА-18
-r.
-time. 17.05-18.35 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Программная инженерия
-s.
-ty.  Лекция
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ПА-14
-r.
-time. 17.05-18.35 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Программная инженерия
-s.
-ty.  Лекция
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ЛК-226
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Программная инженерия
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ЛК-116
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ЛК-107
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ПА-17
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ПА-18
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Проектирование информационных систем
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусов Виталий Андреевич
-te.
-r.  ЛК-528
-r.
-time. 17.05-18.35 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Проектирование информационных систем
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусов Виталий Андреевич
-te.
-r.  ЛК-501
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
     <t>s.  Анализ и моделирование бизнес-процессов
 s.
-ty.  Лекция
+ty.  ЛЗ
 ty.
 te.  Терехова Анна Евгеньевна
 te.
@@ -10696,7 +11058,6 @@
     <t>s.  Анализ и моделирование бизнес-процессов
 s.
 ty.  Лекция
-ЛЗ
 ty.
 te.  Терехова Анна Евгеньевна
 te.
@@ -10705,460 +11066,57 @@
 week. Четная week.</t>
   </si>
   <si>
+    <t>s.  Технологии аналитических информационных систем
+s.
+ty.  ЛЗ
+ty.
+te.  Коржнев Станислав Владимирович
+te.
+r.  ЛК-407
+r.
+time. 17.05-18.35 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Технологии аналитических информационных систем
+s.
+ty.  ЛЗ
+ty.
+te.  Коржнев Станислав Владимирович
+te.
+r.  ЛК-418
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Проектирование информационных систем
+s.
+ty.  ЛЗ
+ty.
+te.  Болдырева Людмила Борисовна
+te.
+r.  ЛК-108
+r.
+time. 17.05-18.35 time.
+week. Четная week.</t>
+  </si>
+  <si>
     <t>s.  Базы данных
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Белоусова Мария Николаевна
 te.
-r.  ЛК-101
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Проектирование информационных систем
-s.
-ty.  Лекция
-ty.
-te.  Болдырева Людмила Борисовна
-te.
-r.  ПА-18
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Иностранный язык профессионального делового общения
-Проектирование информационных систем
-s.
-ty.  Лекция
-ПЗ
-ty.
-te.  Белоусов Виталий Андреевич
-te.
-r.  ЛК 6 этаж
-ПА-18
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Цифровой маркетинг
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Блинникова Алла Викторовна
-te.
-r.  ПА-21
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Цифровой маркетинг
-s.
-ty.  Лекция
-ty.
-te.  Блинникова Алла Викторовна
-te.
-r.  ПА-17
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Цифровой маркетинг
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Блинникова Алла Викторовна
-te.
-r.  ПА-17
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Рынки ИКТ и организация продаж
-s.
-ty.  ПЗ
-ty.
-te.  Данилина Ольга Михайловна
-te.
-r.  ЛК-519
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Проектирование информационных систем
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусов Виталий Андреевич
-te.
-r.  ЛК-110
+r.  ЛК-418
 r.
 time. 11.35-13.05 time.
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусов Виталий Андреевич
-te.
-r.  ЛК-110
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
     <t>s.  Программная инженерия
 s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ЛК-101
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусов Виталий Андреевич
-te.
-r.  ЛК-102
-r.
-time. 17.05-18.35 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Анализ и моделирование бизнес-процессов
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Терехова Анна Евгеньевна
-te.
-r.  r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Цифровой маркетинг
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Блинникова Алла Викторовна
-te.
-r.  У-441
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Программная инженерия
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ЛК-416
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Проектирование информационных систем
-Цифровой маркетинг
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусов Виталий Андреевич
-Блинникова Алла Викторовна
-te.
-r.  ЛК-509
-ПА-21
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Технологии аналитических информационных систем
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Коржнев Станислав Владимирович
-te.
-r.  ЛК-416
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Технологии аналитических информационных систем
-Анализ и моделирование бизнес-процессов
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Коржнев Станислав Владимирович
-Терехова Анна Евгеньевна
-te.
-r.  ЛК-519
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ЛК-418
-r.
-time. 17.05-18.35 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Операционные системы
-s.
-ty.  Лекция
-ty.
-te.  Белоусов Виталий Андреевич
-te.
-r.  ПА-12
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Программная инженерия
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ЛК-509
-r.
-time. 17.05-18.35 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусов Виталий Андреевич
-te.
-r.  ЛК-501
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Операционные системы
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусов Виталий Андреевич
-te.
-r.  ЛК-407
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Проектирование информационных систем
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Болдырева Людмила Борисовна
-te.
-r.  ЛК-407
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Программная инженерия
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ЛК-110
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Технологии аналитических информационных систем
-s.
-ty.  Лекция
-ty.
-te.  Крамаренко Инна Владимировна
-te.
-r.  ПА-14
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Проектирование информационных систем
-s.
-ty.  Лекция
-ty.
-te.  Болдырева Людмила Борисовна
-te.
-r.  ПА-14
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ПА-14
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ПА-14
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Программная инженерия
-s.
-ty.  Лекция
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ПА-14
-r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Анализ и моделирование бизнес-процессов
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Терехова Анна Евгеньевна
-te.
-r.  r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Анализ и моделирование бизнес-процессов
-s.
-ty.  Лекция
-ty.
-te.  Терехова Анна Евгеньевна
-te.
-r.  r.
-time. 15.25-16.55 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Технологии аналитических информационных систем
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Коржнев Станислав Владимирович
-te.
-r.  ЛК-407
-r.
-time. 17.05-18.35 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Технологии аналитических информационных систем
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Коржнев Станислав Владимирович
-te.
-r.  ЛК-418
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Проектирование информационных систем
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Болдырева Людмила Борисовна
-te.
-r.  ЛК-108
-r.
-time. 17.05-18.35 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-te.
-r.  ЛК-418
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Программная инженерия
-s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Белоусова Мария Николаевна
 te.
@@ -11171,8 +11129,7 @@
     <t>s.  Базы данных
 Операционные системы
 s.
-ty.  Лекция
-ПЗ
+ty.  ПЗ
 ЛЗ
 ty.
 te.  Белоусов Виталий Андреевич
@@ -11198,8 +11155,7 @@
   <si>
     <t>s.  Программная инженерия
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Белоусова Мария Николаевна
 te.
@@ -11211,8 +11167,7 @@
   <si>
     <t>s.  Технологии аналитических информационных систем
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Коржнев Станислав Владимирович
 te.
@@ -11224,8 +11179,7 @@
   <si>
     <t>s.  Базы данных
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Белоусов Виталий Андреевич
 te.
@@ -11237,8 +11191,7 @@
   <si>
     <t>s.  Анализ и моделирование бизнес-процессов
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Терехова Анна Евгеньевна
 te.
@@ -11251,55 +11204,52 @@
 Операционные системы
 Программная инженерия
 s.
+ty.  ЛЗ
+ty.
+te.  Белоусов Виталий Андреевич
+Белоусова Мария Николаевна
+te.
+r.  ЛК-528
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Базы данных
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусов Виталий Андреевич
+te.
+r.  ЛК-528
+r.
+time. 11.35-13.05 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Проектирование информационных систем
+Программная инженерия
+s.
+ty.  ЛЗ
+ty.
+te.  Белоусова Мария Николаевна
+Болдырева Людмила Борисовна
+te.
+r.  ЛК-407
+r.
+time. 13.15-14.45 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Операционные системы
+Программная инженерия
+s.
 ty.  Лекция
 ЛЗ
 ty.
 te.  Белоусов Виталий Андреевич
 Белоусова Мария Николаевна
 te.
-r.  ЛК-528
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Базы данных
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусов Виталий Андреевич
-te.
-r.  ЛК-528
-r.
-time. 11.35-13.05 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Проектирование информационных систем
-Программная инженерия
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусова Мария Николаевна
-Болдырева Людмила Борисовна
-te.
-r.  ЛК-407
-r.
-time. 13.15-14.45 time.
-week. Четная week.</t>
-  </si>
-  <si>
-    <t>s.  Операционные системы
-Программная инженерия
-s.
-ty.  Лекция
-ЛЗ
-ty.
-te.  Белоусов Виталий Андреевич
-Белоусова Мария Николаевна
-te.
 r.  ПА-12
 ЛК-418
 r.
@@ -11309,8 +11259,7 @@
   <si>
     <t>s.  Технологии аналитических информационных систем
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Коржнев Станислав Владимирович
 te.
@@ -11322,8 +11271,7 @@
   <si>
     <t>s.  Программная инженерия
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Белоусова Мария Николаевна
 te.
@@ -11335,8 +11283,7 @@
   <si>
     <t>s.  Операционные системы
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Белоусов Виталий Андреевич
 te.
@@ -11508,8 +11455,7 @@
   <si>
     <t>s.  Физическая культура и спорт
 s.
-ty.  ПЗ
-ty.
+ty.  ty.
 te.  te.
 r.  Спортивный комплекс
 r.
@@ -12888,8 +12834,7 @@
   <si>
     <t>s.  Иностранный язык в системе межкультурных коммуникаций (немецкий, французский)
 s.
-ty.  Лекция
-ty.
+ty.  ty.
 te.  te.
 r.  ЛК 6 этаж
 r.
@@ -13915,8 +13860,7 @@
   <si>
     <t>s.  Физическая культура и спорт
 s.
-ty.  ПЗ
-ty.
+ty.  ty.
 te.  te.
 r.  Спортивный комплекс
 r.
@@ -14292,8 +14236,7 @@
   <si>
     <t>s.  Геоэкология
 s.
-ty.  Лекция
-ЛЗ
+ty.  ЛЗ
 ty.
 te.  Чернышенко Сергей Викторович
 te.
@@ -14967,6 +14910,16 @@
 r.  ЛК-109
 r.
 time. 15.25 - 16.55 time.
+week. Четная week.</t>
+  </si>
+  <si>
+    <t>s.  Иностранный язык профессионального делового общения
+s.
+ty.  ty.
+te.  te.
+r.  ЛК 6 этаж
+r.
+time. 17.05 - 18.35 time.
 week. Четная week.</t>
   </si>
   <si>
@@ -37796,7 +37749,7 @@
         <v>1947</v>
       </c>
       <c r="L9" s="1032" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="M9" s="436" t="s">
         <v>1085</v>
@@ -37805,7 +37758,7 @@
         <v>1085</v>
       </c>
       <c r="O9" s="1033" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -37846,10 +37799,10 @@
         <v>1085</v>
       </c>
       <c r="N10" s="177" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="O10" s="1034" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -37884,16 +37837,16 @@
         <v>1948</v>
       </c>
       <c r="L11" s="485" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="M11" s="441" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="N11" s="177" t="s">
         <v>1272</v>
       </c>
       <c r="O11" s="1035" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -37928,16 +37881,16 @@
         <v>1948</v>
       </c>
       <c r="L12" s="486" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="M12" s="442" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="N12" s="177" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="O12" s="1034" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -37972,16 +37925,16 @@
         <v>1949</v>
       </c>
       <c r="L13" s="485" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="M13" s="441" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="N13" s="196" t="s">
         <v>1335</v>
       </c>
       <c r="O13" s="447" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -38016,16 +37969,16 @@
         <v>1950</v>
       </c>
       <c r="L14" s="486" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="M14" s="442" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="N14" s="177" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="O14" s="448" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -38063,13 +38016,13 @@
         <v>1279</v>
       </c>
       <c r="M15" s="458" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="N15" s="459" t="s">
         <v>1279</v>
       </c>
       <c r="O15" s="1036" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38107,7 +38060,7 @@
         <v>1279</v>
       </c>
       <c r="M16" s="450" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="N16" s="460" t="s">
         <v>1279</v>
@@ -38500,16 +38453,16 @@
         <v>1902</v>
       </c>
       <c r="L25" s="232" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="M25" s="242" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="N25" s="236" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="O25" s="177" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -38544,16 +38497,16 @@
         <v>1903</v>
       </c>
       <c r="L26" s="1042" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="M26" s="229" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="N26" s="228" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="O26" s="233" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -38588,16 +38541,16 @@
         <v>1937</v>
       </c>
       <c r="L27" s="245" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M27" s="441" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="N27" s="513" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="O27" s="508" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -38632,16 +38585,16 @@
         <v>1937</v>
       </c>
       <c r="L28" s="243" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="M28" s="437" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="N28" s="1043" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="O28" s="448" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -38676,16 +38629,16 @@
         <v>1938</v>
       </c>
       <c r="L29" s="476" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="M29" s="441" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="N29" s="513" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="O29" s="233" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -38720,16 +38673,16 @@
         <v>1938</v>
       </c>
       <c r="L30" s="477" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="M30" s="437" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="N30" s="1043" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="O30" s="238" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="31" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -38764,16 +38717,16 @@
         <v>1939</v>
       </c>
       <c r="L31" s="485" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="M31" s="242" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="N31" s="446" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="O31" s="447" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38808,16 +38761,16 @@
         <v>1939</v>
       </c>
       <c r="L32" s="1046" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="M32" s="226" t="s">
         <v>1279</v>
       </c>
       <c r="N32" s="488" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="O32" s="467" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="94.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -38949,7 +38902,7 @@
         <v>1864</v>
       </c>
       <c r="O35" s="491" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -38993,7 +38946,7 @@
         <v>1864</v>
       </c>
       <c r="O36" s="492" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -39028,13 +38981,13 @@
         <v>1951</v>
       </c>
       <c r="L37" s="485" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="M37" s="449" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="N37" s="230" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="O37" s="493" t="s">
         <v>1297</v>
@@ -39072,13 +39025,13 @@
         <v>1951</v>
       </c>
       <c r="L38" s="486" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="M38" s="450" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="N38" s="248" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="O38" s="493" t="s">
         <v>1297</v>
@@ -39116,7 +39069,7 @@
         <v>1847</v>
       </c>
       <c r="K39" s="242" t="s">
-        <v>1847</v>
+        <v>1952</v>
       </c>
       <c r="L39" s="243" t="s">
         <v>1847</v>
@@ -39166,16 +39119,16 @@
         <v>1909</v>
       </c>
       <c r="L40" s="210" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="M40" s="211" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="N40" s="1047" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O40" s="240" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -39207,7 +39160,7 @@
         <v>1085</v>
       </c>
       <c r="K41" s="504" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="L41" s="180" t="s">
         <v>1085</v>
@@ -39216,10 +39169,10 @@
         <v>1085</v>
       </c>
       <c r="N41" s="1048" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O41" s="508" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -39251,7 +39204,7 @@
         <v>1085</v>
       </c>
       <c r="K42" s="505" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="L42" s="181" t="s">
         <v>1085</v>
@@ -39260,10 +39213,10 @@
         <v>1085</v>
       </c>
       <c r="N42" s="179" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O42" s="499" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="130.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -39295,7 +39248,7 @@
         <v>1941</v>
       </c>
       <c r="K43" s="212" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="L43" s="180" t="s">
         <v>1272</v>
@@ -39304,10 +39257,10 @@
         <v>1272</v>
       </c>
       <c r="N43" s="1048" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O43" s="447" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39339,19 +39292,19 @@
         <v>1941</v>
       </c>
       <c r="K44" s="212" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="L44" s="1050" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="M44" s="437" t="s">
         <v>1272</v>
       </c>
       <c r="N44" s="228" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O44" s="499" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -39383,19 +39336,19 @@
         <v>1942</v>
       </c>
       <c r="K45" s="506" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="L45" s="1050" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="M45" s="441" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="N45" s="463" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O45" s="447" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -39427,19 +39380,19 @@
         <v>1943</v>
       </c>
       <c r="K46" s="507" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="L46" s="243" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="M46" s="442" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="N46" s="464" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O46" s="499" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -39474,16 +39427,16 @@
         <v>1279</v>
       </c>
       <c r="L47" s="221" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="M47" s="223" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="N47" s="213" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="O47" s="233" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -39518,16 +39471,16 @@
         <v>1279</v>
       </c>
       <c r="L48" s="214" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="M48" s="225" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="N48" s="225" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O48" s="240" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="49" spans="2:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -39562,13 +39515,13 @@
         <v>1085</v>
       </c>
       <c r="L49" s="511" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="M49" s="434" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="N49" s="426" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="O49" s="237" t="s">
         <v>1085</v>
@@ -39606,13 +39559,13 @@
         <v>1085</v>
       </c>
       <c r="L50" s="512" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="M50" s="435" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="N50" s="427" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="O50" s="231" t="s">
         <v>1085</v>
@@ -39691,16 +39644,16 @@
         <v>1946</v>
       </c>
       <c r="K52" s="204" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="L52" s="218" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="M52" s="219" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N52" s="177" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="O52" s="233" t="s">
         <v>1864</v>
@@ -39735,16 +39688,16 @@
         <v>1335</v>
       </c>
       <c r="K53" s="204" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="L53" s="511" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="M53" s="516" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="N53" s="177" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="O53" s="1053" t="s">
         <v>1335</v>
@@ -39779,19 +39732,19 @@
         <v>1335</v>
       </c>
       <c r="K54" s="246" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="L54" s="512" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="M54" s="435" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="N54" s="228" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="O54" s="233" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="93.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -39823,13 +39776,13 @@
         <v>1279</v>
       </c>
       <c r="K55" s="204" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="L55" s="520" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="M55" s="516" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="N55" s="180" t="s">
         <v>1279</v>
@@ -39867,19 +39820,19 @@
         <v>1279</v>
       </c>
       <c r="K56" s="211" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="L56" s="521" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="M56" s="522" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="N56" s="234" t="s">
         <v>1279</v>
       </c>
       <c r="O56" s="193" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -40865,43 +40818,43 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="47" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -40916,43 +40869,43 @@
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40967,43 +40920,43 @@
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="49" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41018,43 +40971,43 @@
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41069,43 +41022,43 @@
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="50" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41120,43 +41073,43 @@
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41171,43 +41124,43 @@
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="51" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41222,43 +41175,43 @@
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="52" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41273,43 +41226,43 @@
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="47" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41324,43 +41277,43 @@
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41375,43 +41328,43 @@
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="50" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41426,43 +41379,43 @@
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41477,43 +41430,43 @@
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="50" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41528,43 +41481,43 @@
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41579,43 +41532,43 @@
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="50" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41630,43 +41583,43 @@
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="52" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41681,43 +41634,43 @@
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="47" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41732,43 +41685,43 @@
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41783,43 +41736,43 @@
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="51" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41834,43 +41787,43 @@
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41885,43 +41838,43 @@
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="50" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -41936,43 +41889,43 @@
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41987,43 +41940,43 @@
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="51" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42038,43 +41991,43 @@
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="52" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42089,43 +42042,43 @@
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="47" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42140,43 +42093,43 @@
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42191,43 +42144,43 @@
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="51" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42242,43 +42195,43 @@
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42293,43 +42246,43 @@
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="51" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42344,43 +42297,43 @@
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42395,43 +42348,43 @@
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="50" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42446,43 +42399,43 @@
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="52" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42497,43 +42450,43 @@
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="47" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42548,43 +42501,43 @@
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42599,43 +42552,43 @@
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="50" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42650,43 +42603,43 @@
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42701,43 +42654,43 @@
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="51" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P45" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42752,43 +42705,43 @@
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42803,43 +42756,43 @@
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="50" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42854,43 +42807,43 @@
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="52" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L48" s="34" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M48" s="36" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N48" s="33" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P48" s="34" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q48" s="35" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42905,43 +42858,43 @@
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="47" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42956,43 +42909,43 @@
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43007,43 +42960,43 @@
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="50" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -43058,43 +43011,43 @@
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43109,43 +43062,43 @@
       </c>
       <c r="D53" s="31"/>
       <c r="E53" s="51" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -43160,43 +43113,43 @@
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="48" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43211,43 +43164,43 @@
       </c>
       <c r="D55" s="31"/>
       <c r="E55" s="51" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Q55" s="13" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -43262,43 +43215,43 @@
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="50" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M56" s="15" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="76.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -43306,181 +43259,181 @@
       <c r="B57" s="66"/>
       <c r="D57" s="80"/>
       <c r="E57" s="73" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="F57" s="81" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="G57" s="82" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="H57" s="82" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="I57" s="82" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="J57" s="73" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="K57" s="81" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="L57" s="53" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="M57" s="80" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="N57" s="73" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="O57" s="19" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="P57" s="85" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="Q57" s="86" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="76.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" s="40"/>
       <c r="E58" s="6" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="F58" s="71" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="G58" s="74" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="H58" s="74" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="I58" s="74" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="K58" s="76" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="L58" s="54" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="M58" s="41" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="O58" s="70" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="P58" s="72" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="Q58" s="28" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="76.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" s="41"/>
       <c r="E59" s="78" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="F59" s="76" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="G59" s="75" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="H59" s="74" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="I59" s="74" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="K59" s="71" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="L59" s="29" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="M59" s="83" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="N59" s="20" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="P59" s="72" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="Q59" s="28" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="76.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D60" s="2"/>
       <c r="E60" s="12" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="G60" s="75" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="H60" s="75" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="I60" s="75" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="J60" s="78" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="K60" s="76" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="L60" s="54" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="M60" s="83" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="N60" s="23" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="P60" s="72" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="Q60" s="28" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="76.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/source2.xlsx
+++ b/source2.xlsx
@@ -4682,8 +4682,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -4693,8 +4692,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -4704,8 +4702,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -4715,8 +4712,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6722,8 +6718,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6733,8 +6728,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6744,8 +6738,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -6755,8 +6748,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8776,8 +8768,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8787,8 +8778,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8798,8 +8788,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -8809,8 +8798,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -9582,8 +9570,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  Крысов Виктор Владимирович
@@ -9594,8 +9581,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  Крысов Виктор Владимирович
@@ -9606,8 +9592,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  Крысов Виктор Владимирович
@@ -9618,8 +9603,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  Крысов Виктор Владимирович
@@ -10357,8 +10341,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10368,8 +10351,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10379,8 +10361,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -10390,8 +10371,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11377,8 +11357,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11388,8 +11367,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11399,8 +11377,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -11410,8 +11387,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13704,8 +13680,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13715,8 +13690,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13726,8 +13700,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
@@ -13737,8 +13710,7 @@
 week. Четная week.</t>
   </si>
   <si>
-    <t>s.  Проектное обучение
-s.
+    <t>s.  s.
 ty.  Проект
 ty.
 te.  te.
